--- a/材料/总决赛/提交/技术文档/模块介绍.xlsx
+++ b/材料/总决赛/提交/技术文档/模块介绍.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学\大一下\Hydra-II\材料\总决赛\提交\技术文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB99CD-6DA7-4FC0-9A0B-5797F52B90A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF657E92-9D3B-461C-96B7-5011DBF239C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hydra" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1701,6 +1701,10 @@
   </si>
   <si>
     <t>hydra模块寄存器/信号介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入传输预备信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2387,6 +2391,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2424,9 +2431,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2745,16 +2749,16 @@
       <c r="H1" s="31"/>
     </row>
     <row r="2" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="G2" s="58" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="G2" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -3954,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEA1547-1249-4767-B95E-0D5E25F34622}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3975,18 +3979,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="56" t="s">
         <v>401</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -4102,47 +4106,47 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14" t="s">
+    <row r="11" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+    <row r="12" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4150,27 +4154,38 @@
         <v>3</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="20" t="s">
+    <row r="15" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D15" s="21" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+    <row r="16" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="48"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4205,16 +4220,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="G2" s="55" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="G2" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -4252,7 +4267,7 @@
       <c r="H4" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="68" t="s">
         <v>395</v>
       </c>
       <c r="J4" s="54"/>
@@ -4273,7 +4288,7 @@
       <c r="H5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="65"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
@@ -4291,7 +4306,7 @@
       <c r="H6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
@@ -4309,7 +4324,7 @@
       <c r="H7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
@@ -4327,7 +4342,7 @@
       <c r="H8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="66"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
@@ -4365,7 +4380,7 @@
       <c r="H10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="65" t="s">
         <v>393</v>
       </c>
     </row>
@@ -4385,7 +4400,7 @@
       <c r="H11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="65"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
@@ -4403,7 +4418,7 @@
       <c r="H12" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
@@ -4421,7 +4436,7 @@
       <c r="H13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="66"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
@@ -4439,7 +4454,7 @@
       <c r="H14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="65" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4459,7 +4474,7 @@
       <c r="H15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="65"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
@@ -4477,7 +4492,7 @@
       <c r="H16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="65"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
@@ -4495,7 +4510,7 @@
       <c r="H17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="66"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
@@ -4695,11 +4710,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -4813,7 +4828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70A498F-CA68-49D9-AA87-6B313DC34C25}">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4832,18 +4847,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>408</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="56" t="s">
         <v>409</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -4999,7 +5014,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="55" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -5037,11 +5052,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -5180,11 +5195,11 @@
   <sheetData>
     <row r="1" spans="2:5" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
@@ -5255,11 +5270,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
@@ -5321,11 +5336,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
@@ -5392,18 +5407,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
@@ -5576,11 +5591,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
@@ -5728,16 +5743,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="G2" s="55" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="G2" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="2:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
